--- a/data/José OlivasT3-2024.xlsx
+++ b/data/José OlivasT3-2024.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:I14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,8 @@
     <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -473,6 +475,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -480,6 +483,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -533,8 +537,6 @@
       <c r="F10" s="11" t="n">
         <v>221.79198812</v>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
@@ -615,7 +617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E32"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,6 +630,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -635,6 +639,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -642,6 +647,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -946,6 +952,7 @@
         <v>0.00374635</v>
       </c>
     </row>
+    <row r="31"/>
     <row r="32">
       <c r="C32" s="6" t="inlineStr">
         <is>
@@ -971,7 +978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -984,6 +991,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -991,6 +1000,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -998,6 +1008,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -1094,6 +1105,7 @@
         <v>0.0001225</v>
       </c>
     </row>
+    <row r="15"/>
     <row r="16">
       <c r="C16" s="6" t="inlineStr">
         <is>
